--- a/Code/Results/Cases/Case_7_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_29/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.208920558018178</v>
+        <v>2.241538109082569</v>
       </c>
       <c r="C2">
-        <v>0.556867063509884</v>
+        <v>0.3705299260880111</v>
       </c>
       <c r="D2">
-        <v>0.03239737032850787</v>
+        <v>0.04136138901505149</v>
       </c>
       <c r="E2">
-        <v>0.03219907927192178</v>
+        <v>0.04305121891282804</v>
       </c>
       <c r="F2">
-        <v>1.600796740726693</v>
+        <v>0.640893036099861</v>
       </c>
       <c r="G2">
-        <v>0.0008005433670968206</v>
+        <v>0.0007939354993953067</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1493307346704853</v>
+        <v>0.149724477587398</v>
       </c>
       <c r="M2">
-        <v>0.5129958701682966</v>
+        <v>0.3831198556364157</v>
       </c>
       <c r="N2">
-        <v>0.9556061289080162</v>
+        <v>0.7559952736035669</v>
       </c>
       <c r="O2">
-        <v>1.258807491222981</v>
+        <v>1.905278023551006</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.788423491821277</v>
+        <v>1.948233053961729</v>
       </c>
       <c r="C3">
-        <v>0.4860857226893813</v>
+        <v>0.3400032778276341</v>
       </c>
       <c r="D3">
-        <v>0.03447837134072129</v>
+        <v>0.03804336871064606</v>
       </c>
       <c r="E3">
-        <v>0.03221764219210188</v>
+        <v>0.04450840040304671</v>
       </c>
       <c r="F3">
-        <v>1.460642021509585</v>
+        <v>0.5925340499650673</v>
       </c>
       <c r="G3">
-        <v>0.0008080147327834686</v>
+        <v>0.0007982227751401914</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1352271406294534</v>
+        <v>0.1356773183440865</v>
       </c>
       <c r="M3">
-        <v>0.4482293052878603</v>
+        <v>0.3342705269886608</v>
       </c>
       <c r="N3">
-        <v>1.009373369237032</v>
+        <v>0.7895138218733031</v>
       </c>
       <c r="O3">
-        <v>1.158975442582317</v>
+        <v>1.794060361114333</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.533802088461982</v>
+        <v>1.76877022580814</v>
       </c>
       <c r="C4">
-        <v>0.442961190283313</v>
+        <v>0.3212198971152418</v>
       </c>
       <c r="D4">
-        <v>0.03580049143686992</v>
+        <v>0.03599869173702785</v>
       </c>
       <c r="E4">
-        <v>0.03223866369245521</v>
+        <v>0.04545756774106513</v>
       </c>
       <c r="F4">
-        <v>1.378013922907243</v>
+        <v>0.5640842488895998</v>
       </c>
       <c r="G4">
-        <v>0.0008127340582449194</v>
+        <v>0.000800944668476442</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1267860737301447</v>
+        <v>0.1272156045912567</v>
       </c>
       <c r="M4">
-        <v>0.4090797851169086</v>
+        <v>0.304451030607467</v>
       </c>
       <c r="N4">
-        <v>1.044018772300159</v>
+        <v>0.8112044476573246</v>
       </c>
       <c r="O4">
-        <v>1.100472386105736</v>
+        <v>1.729858304142596</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.430824388212955</v>
+        <v>1.695765839333973</v>
       </c>
       <c r="C5">
-        <v>0.4254537651662531</v>
+        <v>0.313553655951992</v>
       </c>
       <c r="D5">
-        <v>0.03635001899846024</v>
+        <v>0.03516348863055541</v>
       </c>
       <c r="E5">
-        <v>0.03224953565266953</v>
+        <v>0.04585783294851842</v>
       </c>
       <c r="F5">
-        <v>1.345128518525314</v>
+        <v>0.5527835443020379</v>
       </c>
       <c r="G5">
-        <v>0.0008146916010626605</v>
+        <v>0.0008020767692250778</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1233965258536287</v>
+        <v>0.1238056944725727</v>
       </c>
       <c r="M5">
-        <v>0.3932631262973416</v>
+        <v>0.2923374435212267</v>
       </c>
       <c r="N5">
-        <v>1.058531349580811</v>
+        <v>0.820315071959822</v>
       </c>
       <c r="O5">
-        <v>1.077274835953418</v>
+        <v>1.704662460739343</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.413769116511162</v>
+        <v>1.6836504238332</v>
       </c>
       <c r="C6">
-        <v>0.4225501625179788</v>
+        <v>0.3122799151197881</v>
       </c>
       <c r="D6">
-        <v>0.03644190603288422</v>
+        <v>0.03502468083032539</v>
       </c>
       <c r="E6">
-        <v>0.03225147707053511</v>
+        <v>0.04592510405707229</v>
       </c>
       <c r="F6">
-        <v>1.33971330255703</v>
+        <v>0.5509241995040952</v>
       </c>
       <c r="G6">
-        <v>0.0008150187600398993</v>
+        <v>0.0008022661486893674</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1228365980311423</v>
+        <v>0.1232417172704316</v>
       </c>
       <c r="M6">
-        <v>0.3906445566572145</v>
+        <v>0.290328132183177</v>
       </c>
       <c r="N6">
-        <v>1.060964518692526</v>
+        <v>0.8218440677669712</v>
       </c>
       <c r="O6">
-        <v>1.073460070062609</v>
+        <v>1.70053540627157</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.532410270917808</v>
+        <v>1.767785182106422</v>
       </c>
       <c r="C7">
-        <v>0.4427248341013978</v>
+        <v>0.3211165578537845</v>
       </c>
       <c r="D7">
-        <v>0.0358078595242608</v>
+        <v>0.03598743606780275</v>
       </c>
       <c r="E7">
-        <v>0.03223880112266908</v>
+        <v>0.04546291159568661</v>
       </c>
       <c r="F7">
-        <v>1.377567331366777</v>
+        <v>0.5639306833240312</v>
       </c>
       <c r="G7">
-        <v>0.0008127603175624998</v>
+        <v>0.00080095984305997</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1267401635989245</v>
+        <v>0.1271694657865723</v>
       </c>
       <c r="M7">
-        <v>0.4088659440791176</v>
+        <v>0.3042875155746856</v>
       </c>
       <c r="N7">
-        <v>1.044212917893727</v>
+        <v>0.8113262271379682</v>
       </c>
       <c r="O7">
-        <v>1.100157008335415</v>
+        <v>1.729514666428372</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.063121673349883</v>
+        <v>2.140257781587536</v>
       </c>
       <c r="C8">
-        <v>0.5323805960125867</v>
+        <v>0.3600114673910753</v>
       </c>
       <c r="D8">
-        <v>0.03310543082532247</v>
+        <v>0.04021879526975169</v>
       </c>
       <c r="E8">
-        <v>0.03220340937491128</v>
+        <v>0.04354221837629613</v>
       </c>
       <c r="F8">
-        <v>1.551712645381443</v>
+        <v>0.6239487327723268</v>
       </c>
       <c r="G8">
-        <v>0.0008030928836757737</v>
+        <v>0.0007953954282476032</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.144419495446833</v>
+        <v>0.1448454170574678</v>
       </c>
       <c r="M8">
-        <v>0.4905248276977332</v>
+        <v>0.3662369083595252</v>
       </c>
       <c r="N8">
-        <v>0.9737962486356366</v>
+        <v>0.7673173599292262</v>
       </c>
       <c r="O8">
-        <v>1.223768056761173</v>
+        <v>1.866044733126586</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.137805486667673</v>
+        <v>2.877116257588852</v>
       </c>
       <c r="C9">
-        <v>0.7117663713876254</v>
+        <v>0.4360606415790187</v>
       </c>
       <c r="D9">
-        <v>0.02817880516919669</v>
+        <v>0.04846403706008573</v>
       </c>
       <c r="E9">
-        <v>0.03221628491403372</v>
+        <v>0.04021807823485801</v>
       </c>
       <c r="F9">
-        <v>1.924150864991049</v>
+        <v>0.7524501772938379</v>
       </c>
       <c r="G9">
-        <v>0.0007851214946795785</v>
+        <v>0.0007851743280952078</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1810563937878058</v>
+        <v>0.1809368828950113</v>
       </c>
       <c r="M9">
-        <v>0.6564592196794692</v>
+        <v>0.4893809371303703</v>
       </c>
       <c r="N9">
-        <v>0.8494510147519279</v>
+        <v>0.6901857581811086</v>
       </c>
       <c r="O9">
-        <v>1.491296136128383</v>
+        <v>2.169099476770839</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.956864394316199</v>
+        <v>3.424633278248677</v>
       </c>
       <c r="C10">
-        <v>0.8471547659263763</v>
+        <v>0.4919429795386634</v>
       </c>
       <c r="D10">
-        <v>0.0248197226733442</v>
+        <v>0.05449983956891913</v>
       </c>
       <c r="E10">
-        <v>0.03228552299226051</v>
+        <v>0.03806031048602687</v>
       </c>
       <c r="F10">
-        <v>2.222423156366062</v>
+        <v>0.8548516958145171</v>
       </c>
       <c r="G10">
-        <v>0.0007724272718370063</v>
+        <v>0.0007780573333005409</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.209532817093077</v>
+        <v>0.2085236763685714</v>
       </c>
       <c r="M10">
-        <v>0.783305252155138</v>
+        <v>0.581290426272254</v>
       </c>
       <c r="N10">
-        <v>0.7676873603722356</v>
+        <v>0.639637505283531</v>
       </c>
       <c r="O10">
-        <v>1.707732861499665</v>
+        <v>2.4175895744103</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.338103438084715</v>
+        <v>3.675583821201144</v>
       </c>
       <c r="C11">
-        <v>0.9098883968133578</v>
+        <v>0.5174030605535904</v>
       </c>
       <c r="D11">
-        <v>0.02335712619226005</v>
+        <v>0.05724336369318905</v>
       </c>
       <c r="E11">
-        <v>0.03233261713939095</v>
+        <v>0.03714392014182177</v>
       </c>
       <c r="F11">
-        <v>2.364929669778448</v>
+        <v>0.9035076064882617</v>
       </c>
       <c r="G11">
-        <v>0.0007667399004662659</v>
+        <v>0.0007748980920389306</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2229166176875026</v>
+        <v>0.2213536838070382</v>
       </c>
       <c r="M11">
-        <v>0.8424355508197294</v>
+        <v>0.623515921825792</v>
       </c>
       <c r="N11">
-        <v>0.7328832632192217</v>
+        <v>0.6180972331178083</v>
       </c>
       <c r="O11">
-        <v>1.811670728412494</v>
+        <v>2.537274082178271</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.48392161294106</v>
+        <v>3.770930304287049</v>
       </c>
       <c r="C12">
-        <v>0.9338429449381351</v>
+        <v>0.5270528928178067</v>
       </c>
       <c r="D12">
-        <v>0.02281360012801681</v>
+        <v>0.05828215940687187</v>
       </c>
       <c r="E12">
-        <v>0.03235295712660635</v>
+        <v>0.03680659195070746</v>
       </c>
       <c r="F12">
-        <v>2.420012731167304</v>
+        <v>0.9222604892000277</v>
       </c>
       <c r="G12">
-        <v>0.0007645966386666819</v>
+        <v>0.0007737124392277859</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2280550121666067</v>
+        <v>0.2262566594032336</v>
       </c>
       <c r="M12">
-        <v>0.8650651968432541</v>
+        <v>0.6395743576280708</v>
       </c>
       <c r="N12">
-        <v>0.7200773880250466</v>
+        <v>0.6101611355474645</v>
       </c>
       <c r="O12">
-        <v>1.851927104865609</v>
+        <v>2.583643610588638</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.452448936483563</v>
+        <v>3.750380859822883</v>
       </c>
       <c r="C13">
-        <v>0.928674479508544</v>
+        <v>0.5249741923028068</v>
       </c>
       <c r="D13">
-        <v>0.02293018276675518</v>
+        <v>0.05805843804392907</v>
       </c>
       <c r="E13">
-        <v>0.0323484603975368</v>
+        <v>0.03687880548006639</v>
       </c>
       <c r="F13">
-        <v>2.408097466678285</v>
+        <v>0.9182066354926661</v>
       </c>
       <c r="G13">
-        <v>0.0007650578014408346</v>
+        <v>0.0007739673253052812</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2269450981702903</v>
+        <v>0.2251986656005016</v>
       </c>
       <c r="M13">
-        <v>0.8601803320020238</v>
+        <v>0.6361126892080122</v>
       </c>
       <c r="N13">
-        <v>0.7228182273866963</v>
+        <v>0.6118603053338916</v>
       </c>
       <c r="O13">
-        <v>1.84321538003995</v>
+        <v>2.573608970141606</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.350069622166473</v>
+        <v>3.683421403170314</v>
       </c>
       <c r="C14">
-        <v>0.9118549596371963</v>
+        <v>0.5181967661553983</v>
       </c>
       <c r="D14">
-        <v>0.02331219724815359</v>
+        <v>0.05732882719764376</v>
       </c>
       <c r="E14">
-        <v>0.0323342386218104</v>
+        <v>0.03711597189752336</v>
       </c>
       <c r="F14">
-        <v>2.369438111317564</v>
+        <v>0.9050436659259873</v>
       </c>
       <c r="G14">
-        <v>0.0007665633771209694</v>
+        <v>0.0007748003370214248</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2233378969633577</v>
+        <v>0.2217561370941894</v>
       </c>
       <c r="M14">
-        <v>0.8442923267351858</v>
+        <v>0.6248356320346602</v>
       </c>
       <c r="N14">
-        <v>0.7318220427260655</v>
+        <v>0.617439832339862</v>
       </c>
       <c r="O14">
-        <v>1.81496398674156</v>
+        <v>2.541067383593258</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.287554924633923</v>
+        <v>3.64244951633583</v>
       </c>
       <c r="C15">
-        <v>0.9015794760707365</v>
+        <v>0.5140466191735982</v>
       </c>
       <c r="D15">
-        <v>0.02354756666265434</v>
+        <v>0.05688191037779688</v>
       </c>
       <c r="E15">
-        <v>0.03232586236065726</v>
+        <v>0.0372625146257084</v>
       </c>
       <c r="F15">
-        <v>2.345908237605073</v>
+        <v>0.8970245993667021</v>
       </c>
       <c r="G15">
-        <v>0.0007674868755899178</v>
+        <v>0.0007753119542516075</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2211377964212602</v>
+        <v>0.2196534172923066</v>
       </c>
       <c r="M15">
-        <v>0.8345925430070267</v>
+        <v>0.617937310581091</v>
       </c>
       <c r="N15">
-        <v>0.7373867534651453</v>
+        <v>0.6208865583690937</v>
       </c>
       <c r="O15">
-        <v>1.7977795257395</v>
+        <v>2.521274001435756</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.932140723554994</v>
+        <v>3.408274820941926</v>
       </c>
       <c r="C16">
-        <v>0.8430808288953813</v>
+        <v>0.4902801414454814</v>
       </c>
       <c r="D16">
-        <v>0.02491669903275362</v>
+        <v>0.05432051622765499</v>
       </c>
       <c r="E16">
-        <v>0.03228278069436818</v>
+        <v>0.03812153701382037</v>
       </c>
       <c r="F16">
-        <v>2.213258713820991</v>
+        <v>0.8517161329009753</v>
       </c>
       <c r="G16">
-        <v>0.0007728005347925615</v>
+        <v>0.000778265324537714</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2086675019437649</v>
+        <v>0.2076912023149191</v>
       </c>
       <c r="M16">
-        <v>0.7794724076611672</v>
+        <v>0.5785399886022304</v>
       </c>
       <c r="N16">
-        <v>0.770012471685483</v>
+        <v>0.6410754514767874</v>
       </c>
       <c r="O16">
-        <v>1.701059601925067</v>
+        <v>2.409909339119622</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.716460383137871</v>
+        <v>3.265130134382503</v>
       </c>
       <c r="C17">
-        <v>0.8075099586245642</v>
+        <v>0.4757122336340558</v>
       </c>
       <c r="D17">
-        <v>0.02577399144264536</v>
+        <v>0.05274875780423827</v>
       </c>
       <c r="E17">
-        <v>0.03226052066524643</v>
+        <v>0.03866543415191082</v>
       </c>
       <c r="F17">
-        <v>2.133722803276584</v>
+        <v>0.8244723459806096</v>
       </c>
       <c r="G17">
-        <v>0.0007760812087964048</v>
+        <v>0.0007800967806231165</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2011331605635718</v>
+        <v>0.2004275244419489</v>
       </c>
       <c r="M17">
-        <v>0.7460459010035621</v>
+        <v>0.5544834690251577</v>
       </c>
       <c r="N17">
-        <v>0.7906597715269754</v>
+        <v>0.6538411831118296</v>
       </c>
       <c r="O17">
-        <v>1.643202400972626</v>
+        <v>2.343356050944436</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.593206660113481</v>
+        <v>3.182971287650901</v>
       </c>
       <c r="C18">
-        <v>0.7871560151191375</v>
+        <v>0.4673366232720753</v>
       </c>
       <c r="D18">
-        <v>0.02627318298102654</v>
+        <v>0.05184450469394619</v>
       </c>
       <c r="E18">
-        <v>0.0322491672626164</v>
+        <v>0.03898438539080917</v>
       </c>
       <c r="F18">
-        <v>2.088608705878073</v>
+        <v>0.8089956419879769</v>
       </c>
       <c r="G18">
-        <v>0.0007779765228871744</v>
+        <v>0.0007811575939903352</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1968394966900462</v>
+        <v>0.1962757964478783</v>
       </c>
       <c r="M18">
-        <v>0.7269520223306998</v>
+        <v>0.5406853281562931</v>
       </c>
       <c r="N18">
-        <v>0.8027585783360607</v>
+        <v>0.6613198462022822</v>
       </c>
       <c r="O18">
-        <v>1.610432981527737</v>
+        <v>2.305695925641004</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.551606500721107</v>
+        <v>3.155182279672601</v>
       </c>
       <c r="C19">
-        <v>0.7802816647912607</v>
+        <v>0.4645012920353508</v>
       </c>
       <c r="D19">
-        <v>0.02644322270623212</v>
+        <v>0.0515382967180642</v>
       </c>
       <c r="E19">
-        <v>0.03224556488712516</v>
+        <v>0.03909341793241516</v>
       </c>
       <c r="F19">
-        <v>2.073438592596617</v>
+        <v>0.8037878043187874</v>
       </c>
       <c r="G19">
-        <v>0.0007786197401142897</v>
+        <v>0.0007815180565408228</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1953923449365078</v>
+        <v>0.1948744612304694</v>
       </c>
       <c r="M19">
-        <v>0.7205089173337242</v>
+        <v>0.5360198749717142</v>
       </c>
       <c r="N19">
-        <v>0.8068924768436716</v>
+        <v>0.6638750370416275</v>
       </c>
       <c r="O19">
-        <v>1.599422030271455</v>
+        <v>2.293048571686228</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.739335706218981</v>
+        <v>3.280349778788036</v>
       </c>
       <c r="C20">
-        <v>0.811285388146274</v>
+        <v>0.4772626324411249</v>
       </c>
       <c r="D20">
-        <v>0.02568209374685626</v>
+        <v>0.05291609548181953</v>
       </c>
       <c r="E20">
-        <v>0.03226273844349725</v>
+        <v>0.03860690016944535</v>
       </c>
       <c r="F20">
-        <v>2.142123089632904</v>
+        <v>0.8273522886849065</v>
       </c>
       <c r="G20">
-        <v>0.0007757311250318566</v>
+        <v>0.0007799010563188712</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2019310174383264</v>
+        <v>0.2011980199188201</v>
       </c>
       <c r="M20">
-        <v>0.7495903041258529</v>
+        <v>0.5570402768427982</v>
       </c>
       <c r="N20">
-        <v>0.7884385434361363</v>
+        <v>0.6524680765650004</v>
       </c>
       <c r="O20">
-        <v>1.649308018201054</v>
+        <v>2.350375994474035</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.380099741153572</v>
+        <v>3.703080029350133</v>
       </c>
       <c r="C21">
-        <v>0.9167895753968196</v>
+        <v>0.52018719993643</v>
       </c>
       <c r="D21">
-        <v>0.02319970204887944</v>
+        <v>0.05754313310962544</v>
       </c>
       <c r="E21">
-        <v>0.03233834555710224</v>
+        <v>0.03704604481441809</v>
       </c>
       <c r="F21">
-        <v>2.380761750766581</v>
+        <v>0.9089007997489063</v>
       </c>
       <c r="G21">
-        <v>0.0007661208884024277</v>
+        <v>0.0007745553761994318</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.224395440998677</v>
+        <v>0.2227660478204712</v>
       </c>
       <c r="M21">
-        <v>0.8489522694043998</v>
+        <v>0.6281460427405037</v>
       </c>
       <c r="N21">
-        <v>0.7291670058294386</v>
+        <v>0.6157949027616709</v>
       </c>
       <c r="O21">
-        <v>1.823236814379896</v>
+        <v>2.550596436536864</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.807450043266272</v>
+        <v>3.981230348766871</v>
       </c>
       <c r="C22">
-        <v>0.9869197522680508</v>
+        <v>0.5482929429037426</v>
       </c>
       <c r="D22">
-        <v>0.02163804547045167</v>
+        <v>0.0605665903243704</v>
       </c>
       <c r="E22">
-        <v>0.03240252455466397</v>
+        <v>0.03608257001171822</v>
       </c>
       <c r="F22">
-        <v>2.543324399180563</v>
+        <v>0.9641244834778462</v>
       </c>
       <c r="G22">
-        <v>0.0007598996211159477</v>
+        <v>0.0007711236378261019</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2394912938407998</v>
+        <v>0.237123721149743</v>
       </c>
       <c r="M22">
-        <v>0.9152982146208757</v>
+        <v>0.6750219734892653</v>
       </c>
       <c r="N22">
-        <v>0.692624333703705</v>
+        <v>0.5931194697398965</v>
       </c>
       <c r="O22">
-        <v>1.942200483326857</v>
+        <v>2.687606146650296</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.578505220238128</v>
+        <v>3.832588761500972</v>
       </c>
       <c r="C23">
-        <v>0.949369849887546</v>
+        <v>0.5332865314592823</v>
       </c>
       <c r="D23">
-        <v>0.02246563322561279</v>
+        <v>0.05895289732962539</v>
       </c>
       <c r="E23">
-        <v>0.03236682092906351</v>
+        <v>0.03659150361424857</v>
       </c>
       <c r="F23">
-        <v>2.455907828143722</v>
+        <v>0.9344637830935056</v>
       </c>
       <c r="G23">
-        <v>0.0007632153467777828</v>
+        <v>0.0007729497523355587</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2313934172815806</v>
+        <v>0.2294353520192232</v>
       </c>
       <c r="M23">
-        <v>0.8797474202141586</v>
+        <v>0.6499633252776391</v>
       </c>
       <c r="N23">
-        <v>0.7119161699416097</v>
+        <v>0.6050994508347856</v>
       </c>
       <c r="O23">
-        <v>1.878183514348237</v>
+        <v>2.613886124640487</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.728991471364566</v>
+        <v>3.273468554468366</v>
       </c>
       <c r="C24">
-        <v>0.8095782192638978</v>
+        <v>0.476561698383307</v>
       </c>
       <c r="D24">
-        <v>0.02572362106862958</v>
+        <v>0.0528404440896324</v>
       </c>
       <c r="E24">
-        <v>0.03226173130694665</v>
+        <v>0.03863334391568429</v>
       </c>
       <c r="F24">
-        <v>2.138323423668055</v>
+        <v>0.8260496891219162</v>
       </c>
       <c r="G24">
-        <v>0.0007758893689809427</v>
+        <v>0.0007799895187108509</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.201570188829777</v>
+        <v>0.2008496036700507</v>
       </c>
       <c r="M24">
-        <v>0.7479874973541953</v>
+        <v>0.5558842441649148</v>
       </c>
       <c r="N24">
-        <v>0.78944205146108</v>
+        <v>0.6530884244721378</v>
       </c>
       <c r="O24">
-        <v>1.646546139748381</v>
+        <v>2.347200409017262</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.842586450212139</v>
+        <v>2.676867236628368</v>
       </c>
       <c r="C25">
-        <v>0.6627183588489913</v>
+        <v>0.41549698317354</v>
       </c>
       <c r="D25">
-        <v>0.02946853789373272</v>
+        <v>0.04623811004780265</v>
       </c>
       <c r="E25">
-        <v>0.03220308646660586</v>
+        <v>0.04106850989804611</v>
       </c>
       <c r="F25">
-        <v>1.819523168057884</v>
+        <v>0.716390968828378</v>
       </c>
       <c r="G25">
-        <v>0.0007898865996629748</v>
+        <v>0.0007878683183089892</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1708994833415716</v>
+        <v>0.171000425448959</v>
       </c>
       <c r="M25">
-        <v>0.6108127637179805</v>
+        <v>0.4558474781839692</v>
       </c>
       <c r="N25">
-        <v>0.8815009366440663</v>
+        <v>0.710017654657868</v>
       </c>
       <c r="O25">
-        <v>1.415789768433896</v>
+        <v>2.082907116589126</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.241538109082569</v>
+        <v>1.92089766034411</v>
       </c>
       <c r="C2">
-        <v>0.3705299260880111</v>
+        <v>0.3913052027188542</v>
       </c>
       <c r="D2">
-        <v>0.04136138901505149</v>
+        <v>0.06014831367080831</v>
       </c>
       <c r="E2">
-        <v>0.04305121891282804</v>
+        <v>0.07683730583115711</v>
       </c>
       <c r="F2">
-        <v>0.640893036099861</v>
+        <v>0.4103437285730749</v>
       </c>
       <c r="G2">
-        <v>0.0007939354993953067</v>
+        <v>0.3032546418241751</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.805843152597358E-05</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.249009727048886</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2344184684410031</v>
       </c>
       <c r="L2">
-        <v>0.149724477587398</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3831198556364157</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7559952736035669</v>
+        <v>0.2003112607667248</v>
       </c>
       <c r="O2">
-        <v>1.905278023551006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3456566356066233</v>
+      </c>
+      <c r="P2">
+        <v>0.8167062203059174</v>
+      </c>
+      <c r="Q2">
+        <v>1.114099093558295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.948233053961729</v>
+        <v>1.673626354572349</v>
       </c>
       <c r="C3">
-        <v>0.3400032778276341</v>
+        <v>0.360740174655291</v>
       </c>
       <c r="D3">
-        <v>0.03804336871064606</v>
+        <v>0.05313985554971623</v>
       </c>
       <c r="E3">
-        <v>0.04450840040304671</v>
+        <v>0.07540198660035857</v>
       </c>
       <c r="F3">
-        <v>0.5925340499650673</v>
+        <v>0.379695873104005</v>
       </c>
       <c r="G3">
-        <v>0.0007982227751401914</v>
+        <v>0.281394512567509</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.762963620956299E-06</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2430080312973786</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2351883738575786</v>
       </c>
       <c r="L3">
-        <v>0.1356773183440865</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3342705269886608</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7895138218733031</v>
+        <v>0.1819530221615153</v>
       </c>
       <c r="O3">
-        <v>1.794060361114333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3019194002907213</v>
+      </c>
+      <c r="P3">
+        <v>0.8211380234911871</v>
+      </c>
+      <c r="Q3">
+        <v>1.054901600452752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.76877022580814</v>
+        <v>1.521561365121897</v>
       </c>
       <c r="C4">
-        <v>0.3212198971152418</v>
+        <v>0.3418781722940736</v>
       </c>
       <c r="D4">
-        <v>0.03599869173702785</v>
+        <v>0.04882367257524578</v>
       </c>
       <c r="E4">
-        <v>0.04545756774106513</v>
+        <v>0.07450409382454071</v>
       </c>
       <c r="F4">
-        <v>0.5640842488895998</v>
+        <v>0.361456841548204</v>
       </c>
       <c r="G4">
-        <v>0.000800944668476442</v>
+        <v>0.2684678511142806</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0001094263542966711</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2396558876835755</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.236063379598864</v>
       </c>
       <c r="L4">
-        <v>0.1272156045912567</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.304451030607467</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8112044476573246</v>
+        <v>0.1706646577036466</v>
       </c>
       <c r="O4">
-        <v>1.729858304142596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2750405978266031</v>
+      </c>
+      <c r="P4">
+        <v>0.8244988738220869</v>
+      </c>
+      <c r="Q4">
+        <v>1.020293450396636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.695765839333973</v>
+        <v>1.459526296392909</v>
       </c>
       <c r="C5">
-        <v>0.313553655951992</v>
+        <v>0.3341669885396925</v>
       </c>
       <c r="D5">
-        <v>0.03516348863055541</v>
+        <v>0.04706124093209496</v>
       </c>
       <c r="E5">
-        <v>0.04585783294851842</v>
+        <v>0.07413371394281798</v>
       </c>
       <c r="F5">
-        <v>0.5527835443020379</v>
+        <v>0.3541621213857482</v>
       </c>
       <c r="G5">
-        <v>0.0008020767692250778</v>
+        <v>0.2633178144433757</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0001844965958983646</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2383705047204856</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2365175117643972</v>
       </c>
       <c r="L5">
-        <v>0.1238056944725727</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2923374435212267</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.820315071959822</v>
+        <v>0.1660593633688805</v>
       </c>
       <c r="O5">
-        <v>1.704662460739343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2640798316321309</v>
+      </c>
+      <c r="P5">
+        <v>0.8260253991803097</v>
+      </c>
+      <c r="Q5">
+        <v>1.006606593655121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.6836504238332</v>
+        <v>1.449221153837925</v>
       </c>
       <c r="C6">
-        <v>0.3122799151197881</v>
+        <v>0.3328850321785239</v>
       </c>
       <c r="D6">
-        <v>0.03502468083032539</v>
+        <v>0.04676836766143566</v>
       </c>
       <c r="E6">
-        <v>0.04592510405707229</v>
+        <v>0.07407193326177897</v>
       </c>
       <c r="F6">
-        <v>0.5509241995040952</v>
+        <v>0.3529589430625393</v>
       </c>
       <c r="G6">
-        <v>0.0008022661486893674</v>
+        <v>0.2624695650660058</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0001989621377550543</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2381618508982442</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2365987096847313</v>
       </c>
       <c r="L6">
-        <v>0.1232417172704316</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.290328132183177</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8218440677669712</v>
+        <v>0.1652943131456936</v>
       </c>
       <c r="O6">
-        <v>1.70053540627157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2622593161713915</v>
+      </c>
+      <c r="P6">
+        <v>0.8262882463981143</v>
+      </c>
+      <c r="Q6">
+        <v>1.004358439417231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.767785182106422</v>
+        <v>1.520725020271044</v>
       </c>
       <c r="C7">
-        <v>0.3211165578537845</v>
+        <v>0.3417742779634665</v>
       </c>
       <c r="D7">
-        <v>0.03598743606780275</v>
+        <v>0.04879991856559229</v>
       </c>
       <c r="E7">
-        <v>0.04546291159568661</v>
+        <v>0.07449911729285175</v>
       </c>
       <c r="F7">
-        <v>0.5639306833240312</v>
+        <v>0.3613579143195125</v>
       </c>
       <c r="G7">
-        <v>0.00080095984305997</v>
+        <v>0.2683979283853901</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0001103034657151669</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2396382300131918</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2360691138262965</v>
       </c>
       <c r="L7">
-        <v>0.1271694657865723</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3042875155746856</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8113262271379682</v>
+        <v>0.1706025715288888</v>
       </c>
       <c r="O7">
-        <v>1.729514666428372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.274892809008513</v>
+      </c>
+      <c r="P7">
+        <v>0.8245188306085893</v>
+      </c>
+      <c r="Q7">
+        <v>1.020107206625838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.140257781587536</v>
+        <v>1.835683667391351</v>
       </c>
       <c r="C8">
-        <v>0.3600114673910753</v>
+        <v>0.380785520592724</v>
       </c>
       <c r="D8">
-        <v>0.04021879526975169</v>
+        <v>0.05773430526577528</v>
       </c>
       <c r="E8">
-        <v>0.04354221837629613</v>
+        <v>0.07634566431694756</v>
       </c>
       <c r="F8">
-        <v>0.6239487327723268</v>
+        <v>0.3996514497310173</v>
       </c>
       <c r="G8">
-        <v>0.0007953954282476032</v>
+        <v>0.2956101612310533</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.324307806056414E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2468693555243036</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2345982346011475</v>
       </c>
       <c r="L8">
-        <v>0.1448454170574678</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3662369083595252</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7673173599292262</v>
+        <v>0.1939840559463022</v>
       </c>
       <c r="O8">
-        <v>1.866044733126586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3305801213360198</v>
+      </c>
+      <c r="P8">
+        <v>0.8180991245217584</v>
+      </c>
+      <c r="Q8">
+        <v>1.093313809063957</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.877116257588852</v>
+        <v>2.451795352687327</v>
       </c>
       <c r="C9">
-        <v>0.4360606415790187</v>
+        <v>0.4565807387647283</v>
       </c>
       <c r="D9">
-        <v>0.04846403706008573</v>
+        <v>0.07516639095278066</v>
       </c>
       <c r="E9">
-        <v>0.04021807823485801</v>
+        <v>0.07984958740941472</v>
       </c>
       <c r="F9">
-        <v>0.7524501772938379</v>
+        <v>0.4797046018331699</v>
       </c>
       <c r="G9">
-        <v>0.0007851743280952078</v>
+        <v>0.3532329851378222</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001079925707551332</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2638364911710056</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2350740797433524</v>
       </c>
       <c r="L9">
-        <v>0.1809368828950113</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4893809371303703</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6901857581811086</v>
+        <v>0.2397588123712566</v>
       </c>
       <c r="O9">
-        <v>2.169099476770839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4396659224995787</v>
+      </c>
+      <c r="P9">
+        <v>0.8107715570752916</v>
+      </c>
+      <c r="Q9">
+        <v>1.251672365023182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.424633278248677</v>
+        <v>2.895128146289153</v>
       </c>
       <c r="C10">
-        <v>0.4919429795386634</v>
+        <v>0.5168198387596874</v>
       </c>
       <c r="D10">
-        <v>0.05449983956891913</v>
+        <v>0.08868308606094644</v>
       </c>
       <c r="E10">
-        <v>0.03806031048602687</v>
+        <v>0.08120713547690173</v>
       </c>
       <c r="F10">
-        <v>0.8548516958145171</v>
+        <v>0.5370616209381609</v>
       </c>
       <c r="G10">
-        <v>0.0007780573333005409</v>
+        <v>0.3936246344896546</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.002799583083612056</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.275699136791772</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2343229955431383</v>
       </c>
       <c r="L10">
-        <v>0.2085236763685714</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.581290426272254</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.639637505283531</v>
+        <v>0.2616975792192449</v>
       </c>
       <c r="O10">
-        <v>2.4175895744103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5115891762013405</v>
+      </c>
+      <c r="P10">
+        <v>0.8149289029207694</v>
+      </c>
+      <c r="Q10">
+        <v>1.362593353260877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.675583821201144</v>
+        <v>3.017663532182723</v>
       </c>
       <c r="C11">
-        <v>0.5174030605535904</v>
+        <v>0.5894363637357856</v>
       </c>
       <c r="D11">
-        <v>0.05724336369318905</v>
+        <v>0.1015670973529339</v>
       </c>
       <c r="E11">
-        <v>0.03714392014182177</v>
+        <v>0.07743135486946806</v>
       </c>
       <c r="F11">
-        <v>0.9035076064882617</v>
+        <v>0.5205230728880679</v>
       </c>
       <c r="G11">
-        <v>0.0007748980920389306</v>
+        <v>0.3696389044480526</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02131621300613062</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2598675960874601</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2061866179508982</v>
       </c>
       <c r="L11">
-        <v>0.2213536838070382</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.623515921825792</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6180972331178083</v>
+        <v>0.1817281074662205</v>
       </c>
       <c r="O11">
-        <v>2.537274082178271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.4737912894422465</v>
+      </c>
+      <c r="P11">
+        <v>0.8754119836111869</v>
+      </c>
+      <c r="Q11">
+        <v>1.278778653461984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.770930304287049</v>
+        <v>3.025873926795782</v>
       </c>
       <c r="C12">
-        <v>0.5270528928178067</v>
+        <v>0.6416329852415856</v>
       </c>
       <c r="D12">
-        <v>0.05828215940687187</v>
+        <v>0.1100004132813837</v>
       </c>
       <c r="E12">
-        <v>0.03680659195070746</v>
+        <v>0.08170851325646389</v>
       </c>
       <c r="F12">
-        <v>0.9222604892000277</v>
+        <v>0.494115062828989</v>
       </c>
       <c r="G12">
-        <v>0.0007737124392277859</v>
+        <v>0.3411189217762569</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0597827046447037</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.243968185879524</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1838103935808384</v>
       </c>
       <c r="L12">
-        <v>0.2262566594032336</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6395743576280708</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6101611355474645</v>
+        <v>0.1255325229879602</v>
       </c>
       <c r="O12">
-        <v>2.583643610588638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4282612354440261</v>
+      </c>
+      <c r="P12">
+        <v>0.9320074104672784</v>
+      </c>
+      <c r="Q12">
+        <v>1.185092366510474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.750380859822883</v>
+        <v>2.946484131184036</v>
       </c>
       <c r="C13">
-        <v>0.5249741923028068</v>
+        <v>0.6805290441789396</v>
       </c>
       <c r="D13">
-        <v>0.05805843804392907</v>
+        <v>0.1154072191149282</v>
       </c>
       <c r="E13">
-        <v>0.03687880548006639</v>
+        <v>0.09215568280215969</v>
       </c>
       <c r="F13">
-        <v>0.9182066354926661</v>
+        <v>0.4584361104428609</v>
       </c>
       <c r="G13">
-        <v>0.0007739673253052812</v>
+        <v>0.3073553691655349</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.115168015039032</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2270122438668807</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1644324388628675</v>
       </c>
       <c r="L13">
-        <v>0.2251986656005016</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6361126892080122</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6118603053338916</v>
+        <v>0.0844336490426798</v>
       </c>
       <c r="O13">
-        <v>2.573608970141606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3744776308915476</v>
+      </c>
+      <c r="P13">
+        <v>0.9875100079718209</v>
+      </c>
+      <c r="Q13">
+        <v>1.077990847812771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.683421403170314</v>
+        <v>2.851520479351905</v>
       </c>
       <c r="C14">
-        <v>0.5181967661553983</v>
+        <v>0.7018152917393934</v>
       </c>
       <c r="D14">
-        <v>0.05732882719764376</v>
+        <v>0.1178230740711825</v>
       </c>
       <c r="E14">
-        <v>0.03711597189752336</v>
+        <v>0.1031209013284382</v>
       </c>
       <c r="F14">
-        <v>0.9050436659259873</v>
+        <v>0.4294794252898697</v>
       </c>
       <c r="G14">
-        <v>0.0007748003370214248</v>
+        <v>0.2816205313735551</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1642104701693512</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2147757662248324</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1524905097004066</v>
       </c>
       <c r="L14">
-        <v>0.2217561370941894</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6248356320346602</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.617439832339862</v>
+        <v>0.06478959179889365</v>
       </c>
       <c r="O14">
-        <v>2.541067383593258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3336863744990666</v>
+      </c>
+      <c r="P14">
+        <v>1.026030665555069</v>
+      </c>
+      <c r="Q14">
+        <v>0.9977581311683252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.64244951633583</v>
+        <v>2.810037501690942</v>
       </c>
       <c r="C15">
-        <v>0.5140466191735982</v>
+        <v>0.7035782972689049</v>
       </c>
       <c r="D15">
-        <v>0.05688191037779688</v>
+        <v>0.1176971815102661</v>
       </c>
       <c r="E15">
-        <v>0.0372625146257084</v>
+        <v>0.106045323317737</v>
       </c>
       <c r="F15">
-        <v>0.8970245993667021</v>
+        <v>0.4205314872653645</v>
       </c>
       <c r="G15">
-        <v>0.0007753119542516075</v>
+        <v>0.2742370484240126</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1765834463921436</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2115883125951612</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1500689442570096</v>
       </c>
       <c r="L15">
-        <v>0.2196534172923066</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.617937310581091</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6208865583690937</v>
+        <v>0.06118399339064062</v>
       </c>
       <c r="O15">
-        <v>2.521274001435756</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3218900222285441</v>
+      </c>
+      <c r="P15">
+        <v>1.034113647994616</v>
+      </c>
+      <c r="Q15">
+        <v>0.9753984820425075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.408274820941926</v>
+        <v>2.636850164593909</v>
       </c>
       <c r="C16">
-        <v>0.4902801414454814</v>
+        <v>0.668117607069405</v>
       </c>
       <c r="D16">
-        <v>0.05432051622765499</v>
+        <v>0.1105538991801751</v>
       </c>
       <c r="E16">
-        <v>0.03812153701382037</v>
+        <v>0.102808692379659</v>
       </c>
       <c r="F16">
-        <v>0.8517161329009753</v>
+        <v>0.4030613470833373</v>
       </c>
       <c r="G16">
-        <v>0.000778265324537714</v>
+        <v>0.2637590786225203</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1631375726772148</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2098290971560886</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1540927533564407</v>
       </c>
       <c r="L16">
-        <v>0.2076912023149191</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5785399886022304</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6410754514767874</v>
+        <v>0.06119722434356589</v>
       </c>
       <c r="O16">
-        <v>2.409909339119622</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3034204042175901</v>
+      </c>
+      <c r="P16">
+        <v>1.017083361104426</v>
+      </c>
+      <c r="Q16">
+        <v>0.9493118860952166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.265130134382503</v>
+        <v>2.554542311388445</v>
       </c>
       <c r="C17">
-        <v>0.4757122336340558</v>
+        <v>0.6296659535358629</v>
       </c>
       <c r="D17">
-        <v>0.05274875780423827</v>
+        <v>0.1038088049371879</v>
       </c>
       <c r="E17">
-        <v>0.03866543415191082</v>
+        <v>0.09393611584036421</v>
       </c>
       <c r="F17">
-        <v>0.8244723459806096</v>
+        <v>0.4051271673871781</v>
       </c>
       <c r="G17">
-        <v>0.0007800967806231165</v>
+        <v>0.2694025611580031</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1249878047685939</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2150212455355813</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1634882778875664</v>
       </c>
       <c r="L17">
-        <v>0.2004275244419489</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5544834690251577</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6538411831118296</v>
+        <v>0.07003902570797749</v>
       </c>
       <c r="O17">
-        <v>2.343356050944436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3105113747531973</v>
+      </c>
+      <c r="P17">
+        <v>0.9838762450644509</v>
+      </c>
+      <c r="Q17">
+        <v>0.9720303253191815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.182971287650901</v>
+        <v>2.540394554638226</v>
       </c>
       <c r="C18">
-        <v>0.4673366232720753</v>
+        <v>0.585713751897913</v>
       </c>
       <c r="D18">
-        <v>0.05184450469394619</v>
+        <v>0.09679038264097528</v>
       </c>
       <c r="E18">
-        <v>0.03898438539080917</v>
+        <v>0.08287600122523031</v>
       </c>
       <c r="F18">
-        <v>0.8089956419879769</v>
+        <v>0.4241376079048678</v>
       </c>
       <c r="G18">
-        <v>0.0007811575939903352</v>
+        <v>0.2897618216629141</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07210153375724104</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.226808871499415</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1792131864818352</v>
       </c>
       <c r="L18">
-        <v>0.1962757964478783</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5406853281562931</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6613198462022822</v>
+        <v>0.09541670596161467</v>
       </c>
       <c r="O18">
-        <v>2.305695925641004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3414336633809043</v>
+      </c>
+      <c r="P18">
+        <v>0.9355838081187784</v>
+      </c>
+      <c r="Q18">
+        <v>1.039809229290256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.155182279672601</v>
+        <v>2.581765179784156</v>
       </c>
       <c r="C19">
-        <v>0.4645012920353508</v>
+        <v>0.5424208921741638</v>
       </c>
       <c r="D19">
-        <v>0.0515382967180642</v>
+        <v>0.09025906828007635</v>
       </c>
       <c r="E19">
-        <v>0.03909341793241516</v>
+        <v>0.07621760151703239</v>
       </c>
       <c r="F19">
-        <v>0.8037878043187874</v>
+        <v>0.4556861896701605</v>
       </c>
       <c r="G19">
-        <v>0.0007815180565408228</v>
+        <v>0.3211624617690205</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02714266896702355</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2432765096079379</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2000321084514631</v>
       </c>
       <c r="L19">
-        <v>0.1948744612304694</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5360198749717142</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6638750370416275</v>
+        <v>0.1442539139577974</v>
       </c>
       <c r="O19">
-        <v>2.293048571686228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.3911576521747122</v>
+      </c>
+      <c r="P19">
+        <v>0.8822179855408336</v>
+      </c>
+      <c r="Q19">
+        <v>1.140845496058461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.280349778788036</v>
+        <v>2.778371791853147</v>
       </c>
       <c r="C20">
-        <v>0.4772626324411249</v>
+        <v>0.5012112200189165</v>
       </c>
       <c r="D20">
-        <v>0.05291609548181953</v>
+        <v>0.08516413989116955</v>
       </c>
       <c r="E20">
-        <v>0.03860690016944535</v>
+        <v>0.08079307460352148</v>
       </c>
       <c r="F20">
-        <v>0.8273522886849065</v>
+        <v>0.5215319726643983</v>
       </c>
       <c r="G20">
-        <v>0.0007799010563188712</v>
+        <v>0.3825837527519127</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002264401848703024</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2723414368891355</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2342104585325018</v>
       </c>
       <c r="L20">
-        <v>0.2011980199188201</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5570402768427982</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6524680765650004</v>
+        <v>0.25543987506245</v>
       </c>
       <c r="O20">
-        <v>2.350375994474035</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.4923659242617902</v>
+      </c>
+      <c r="P20">
+        <v>0.8137999819586454</v>
+      </c>
+      <c r="Q20">
+        <v>1.332039870227845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.703080029350133</v>
+        <v>3.132492655961983</v>
       </c>
       <c r="C21">
-        <v>0.52018719993643</v>
+        <v>0.5397739097755903</v>
       </c>
       <c r="D21">
-        <v>0.05754313310962544</v>
+        <v>0.09438788380376195</v>
       </c>
       <c r="E21">
-        <v>0.03704604481441809</v>
+        <v>0.08364119625314093</v>
       </c>
       <c r="F21">
-        <v>0.9089007997489063</v>
+        <v>0.57458436553258</v>
       </c>
       <c r="G21">
-        <v>0.0007745553761994318</v>
+        <v>0.4224527681295882</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.003822954694453762</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2860001304813977</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2396820107736168</v>
       </c>
       <c r="L21">
-        <v>0.2227660478204712</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6281460427405037</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6157949027616709</v>
+        <v>0.2904420388288429</v>
       </c>
       <c r="O21">
-        <v>2.550596436536864</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5603665495328158</v>
+      </c>
+      <c r="P21">
+        <v>0.8088436405053727</v>
+      </c>
+      <c r="Q21">
+        <v>1.4454995025161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.981230348766871</v>
+        <v>3.359508097810306</v>
       </c>
       <c r="C22">
-        <v>0.5482929429037426</v>
+        <v>0.5674262716798921</v>
       </c>
       <c r="D22">
-        <v>0.0605665903243704</v>
+        <v>0.1007935089610967</v>
       </c>
       <c r="E22">
-        <v>0.03608257001171822</v>
+        <v>0.08489910737778672</v>
       </c>
       <c r="F22">
-        <v>0.9641244834778462</v>
+        <v>0.6075275281876458</v>
       </c>
       <c r="G22">
-        <v>0.0007711236378261019</v>
+        <v>0.4466719157060197</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.005062561731620618</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2940641769317267</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2420250257772416</v>
       </c>
       <c r="L22">
-        <v>0.237123721149743</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6750219734892653</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5931194697398965</v>
+        <v>0.3073775263678868</v>
       </c>
       <c r="O22">
-        <v>2.687606146650296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.6006547794986332</v>
+      </c>
+      <c r="P22">
+        <v>0.8093859773898515</v>
+      </c>
+      <c r="Q22">
+        <v>1.513941876174158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.832588761500972</v>
+        <v>3.238328346945593</v>
       </c>
       <c r="C23">
-        <v>0.5332865314592823</v>
+        <v>0.5526705285137723</v>
       </c>
       <c r="D23">
-        <v>0.05895289732962539</v>
+        <v>0.09737442941166563</v>
       </c>
       <c r="E23">
-        <v>0.03659150361424857</v>
+        <v>0.08422777123993797</v>
       </c>
       <c r="F23">
-        <v>0.9344637830935056</v>
+        <v>0.5898663017919361</v>
       </c>
       <c r="G23">
-        <v>0.0007729497523355587</v>
+        <v>0.4336769785781911</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.004381640613980275</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2897206430454702</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2407275123319543</v>
       </c>
       <c r="L23">
-        <v>0.2294353520192232</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6499633252776391</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6050994508347856</v>
+        <v>0.298335282179778</v>
       </c>
       <c r="O23">
-        <v>2.613886124640487</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.5791471871713796</v>
+      </c>
+      <c r="P23">
+        <v>0.8090285173896632</v>
+      </c>
+      <c r="Q23">
+        <v>1.477184913977766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.273468554468366</v>
+        <v>2.779690548640417</v>
       </c>
       <c r="C24">
-        <v>0.476561698383307</v>
+        <v>0.4967134441438361</v>
       </c>
       <c r="D24">
-        <v>0.0528404440896324</v>
+        <v>0.08442883870844042</v>
       </c>
       <c r="E24">
-        <v>0.03863334391568429</v>
+        <v>0.08168176841064767</v>
       </c>
       <c r="F24">
-        <v>0.8260496891219162</v>
+        <v>0.5246448645935828</v>
       </c>
       <c r="G24">
-        <v>0.0007799895187108509</v>
+        <v>0.3859126205001928</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.00221167939617406</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2741143733881586</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2368165439604226</v>
       </c>
       <c r="L24">
-        <v>0.2008496036700507</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5558842441649148</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6530884244721378</v>
+        <v>0.2641560489383892</v>
       </c>
       <c r="O24">
-        <v>2.347200409017262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.4977875088626433</v>
+      </c>
+      <c r="P24">
+        <v>0.8091349091409015</v>
+      </c>
+      <c r="Q24">
+        <v>1.342805470544278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.676867236628368</v>
+        <v>2.285223465933484</v>
       </c>
       <c r="C25">
-        <v>0.41549698317354</v>
+        <v>0.4361440500458684</v>
       </c>
       <c r="D25">
-        <v>0.04623811004780265</v>
+        <v>0.070457749192677</v>
       </c>
       <c r="E25">
-        <v>0.04106850989804611</v>
+        <v>0.07891208987255371</v>
       </c>
       <c r="F25">
-        <v>0.716390968828378</v>
+        <v>0.4574633704468596</v>
       </c>
       <c r="G25">
-        <v>0.0007878683183089892</v>
+        <v>0.3371404691451119</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0006495152899538281</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2589268171830241</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2345612002643342</v>
       </c>
       <c r="L25">
-        <v>0.171000425448959</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4558474781839692</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.710017654657868</v>
+        <v>0.2273756341472151</v>
       </c>
       <c r="O25">
-        <v>2.082907116589126</v>
+        <v>0.4101562926623572</v>
+      </c>
+      <c r="P25">
+        <v>0.8121634522298748</v>
+      </c>
+      <c r="Q25">
+        <v>1.207101372162811</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.92089766034411</v>
+        <v>1.877669588569063</v>
       </c>
       <c r="C2">
-        <v>0.3913052027188542</v>
+        <v>0.4022698647072076</v>
       </c>
       <c r="D2">
-        <v>0.06014831367080831</v>
+        <v>0.0625627976654286</v>
       </c>
       <c r="E2">
-        <v>0.07683730583115711</v>
+        <v>0.07407734440592506</v>
       </c>
       <c r="F2">
-        <v>0.4103437285730749</v>
+        <v>0.3951405469551545</v>
       </c>
       <c r="G2">
-        <v>0.3032546418241751</v>
+        <v>0.2708513285583578</v>
       </c>
       <c r="H2">
-        <v>7.805843152597358E-05</v>
+        <v>7.882520423641015E-05</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.249009727048886</v>
+        <v>0.2843147326642708</v>
       </c>
       <c r="K2">
-        <v>0.2344184684410031</v>
+        <v>0.2199226411807018</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1332755736116269</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04587771329191526</v>
       </c>
       <c r="N2">
-        <v>0.2003112607667248</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3456566356066233</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8167062203059174</v>
+        <v>0.2050674092161913</v>
       </c>
       <c r="Q2">
-        <v>1.114099093558295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3416198698694686</v>
+      </c>
+      <c r="R2">
+        <v>0.8314744872027049</v>
+      </c>
+      <c r="S2">
+        <v>1.066554008877176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.673626354572349</v>
+        <v>1.641245003892237</v>
       </c>
       <c r="C3">
-        <v>0.360740174655291</v>
+        <v>0.3652959328832139</v>
       </c>
       <c r="D3">
-        <v>0.05313985554971623</v>
+        <v>0.05493613431791999</v>
       </c>
       <c r="E3">
-        <v>0.07540198660035857</v>
+        <v>0.07291888205352581</v>
       </c>
       <c r="F3">
-        <v>0.379695873104005</v>
+        <v>0.3673648328595149</v>
       </c>
       <c r="G3">
-        <v>0.281394512567509</v>
+        <v>0.2515606985452763</v>
       </c>
       <c r="H3">
-        <v>8.762963620956299E-06</v>
+        <v>4.145300502189642E-06</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2430080312973786</v>
+        <v>0.2779884748601802</v>
       </c>
       <c r="K3">
-        <v>0.2351883738575786</v>
+        <v>0.2220088129683973</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1380714361834414</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.04368080835722132</v>
       </c>
       <c r="N3">
-        <v>0.1819530221615153</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3019194002907213</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8211380234911871</v>
+        <v>0.186532636488657</v>
       </c>
       <c r="Q3">
-        <v>1.054901600452752</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2988229331887169</v>
+      </c>
+      <c r="R3">
+        <v>0.8294238263973313</v>
+      </c>
+      <c r="S3">
+        <v>1.015647085361849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.521561365121897</v>
+        <v>1.495592674989894</v>
       </c>
       <c r="C4">
-        <v>0.3418781722940736</v>
+        <v>0.3425929855963687</v>
       </c>
       <c r="D4">
-        <v>0.04882367257524578</v>
+        <v>0.05024993026025726</v>
       </c>
       <c r="E4">
-        <v>0.07450409382454071</v>
+        <v>0.07219230957080081</v>
       </c>
       <c r="F4">
-        <v>0.361456841548204</v>
+        <v>0.3507755193886197</v>
       </c>
       <c r="G4">
-        <v>0.2684678511142806</v>
+        <v>0.2401811446443816</v>
       </c>
       <c r="H4">
-        <v>0.0001094263542966711</v>
+        <v>8.062050704960022E-05</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2396558876835755</v>
+        <v>0.2742678374744898</v>
       </c>
       <c r="K4">
-        <v>0.236063379598864</v>
+        <v>0.2235998873658538</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1411922173175597</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.04289575225250708</v>
       </c>
       <c r="N4">
-        <v>0.1706646577036466</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2750405978266031</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8244988738220869</v>
+        <v>0.1751534481976549</v>
       </c>
       <c r="Q4">
-        <v>1.020293450396636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2724940763773098</v>
+      </c>
+      <c r="R4">
+        <v>0.8288546900312497</v>
+      </c>
+      <c r="S4">
+        <v>0.9857597986171953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.459526296392909</v>
+        <v>1.43611106647765</v>
       </c>
       <c r="C5">
-        <v>0.3341669885396925</v>
+        <v>0.3333401871631168</v>
       </c>
       <c r="D5">
-        <v>0.04706124093209496</v>
+        <v>0.04833909644041512</v>
       </c>
       <c r="E5">
-        <v>0.07413371394281798</v>
+        <v>0.07189213084526047</v>
       </c>
       <c r="F5">
-        <v>0.3541621213857482</v>
+        <v>0.3441255649853403</v>
       </c>
       <c r="G5">
-        <v>0.2633178144433757</v>
+        <v>0.2356536408202672</v>
       </c>
       <c r="H5">
-        <v>0.0001844965958983646</v>
+        <v>0.0001408876305147855</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2383705047204856</v>
+        <v>0.2727913288311541</v>
       </c>
       <c r="K5">
-        <v>0.2365175117643972</v>
+        <v>0.2243234272637906</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1425082025142821</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.04271570858926843</v>
       </c>
       <c r="N5">
-        <v>0.1660593633688805</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2640798316321309</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8260253991803097</v>
+        <v>0.1705157490345997</v>
       </c>
       <c r="Q5">
-        <v>1.006606593655121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2617508787769438</v>
+      </c>
+      <c r="R5">
+        <v>0.8287929019384208</v>
+      </c>
+      <c r="S5">
+        <v>0.9739072393942791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.449221153837925</v>
+        <v>1.426226384041257</v>
       </c>
       <c r="C6">
-        <v>0.3328850321785239</v>
+        <v>0.3318036705146739</v>
       </c>
       <c r="D6">
-        <v>0.04676836766143566</v>
+        <v>0.04802172456475517</v>
       </c>
       <c r="E6">
-        <v>0.07407193326177897</v>
+        <v>0.0718420318636217</v>
       </c>
       <c r="F6">
-        <v>0.3529589430625393</v>
+        <v>0.3430278193617582</v>
       </c>
       <c r="G6">
-        <v>0.2624695650660058</v>
+        <v>0.2349082766625301</v>
       </c>
       <c r="H6">
-        <v>0.0001989621377550543</v>
+        <v>0.0001526050607322249</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2381618508982442</v>
+        <v>0.2725485100169038</v>
       </c>
       <c r="K6">
-        <v>0.2365987096847313</v>
+        <v>0.2244480292894551</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1427293919249166</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04269420621505038</v>
       </c>
       <c r="N6">
-        <v>0.1652943131456936</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2622593161713915</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8262882463981143</v>
+        <v>0.1697456016428447</v>
       </c>
       <c r="Q6">
-        <v>1.004358439417231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2599661054840929</v>
+      </c>
+      <c r="R6">
+        <v>0.8287928232050419</v>
+      </c>
+      <c r="S6">
+        <v>0.971958361052657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.520725020271044</v>
+        <v>1.493820042031416</v>
       </c>
       <c r="C7">
-        <v>0.3417742779634665</v>
+        <v>0.3420244244719726</v>
       </c>
       <c r="D7">
-        <v>0.04879991856559229</v>
+        <v>0.05032594506327825</v>
       </c>
       <c r="E7">
-        <v>0.07449911729285175</v>
+        <v>0.07219146114847996</v>
       </c>
       <c r="F7">
-        <v>0.3613579143195125</v>
+        <v>0.3500079795573043</v>
       </c>
       <c r="G7">
-        <v>0.2683979283853901</v>
+        <v>0.2428372353983903</v>
       </c>
       <c r="H7">
-        <v>0.0001103034657151669</v>
+        <v>8.187702879625114E-05</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2396382300131918</v>
+        <v>0.2703028929457005</v>
       </c>
       <c r="K7">
-        <v>0.2360691138262965</v>
+        <v>0.2233446901705491</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1410702806680213</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.04282947577592999</v>
       </c>
       <c r="N7">
-        <v>0.1706025715288888</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.274892809008513</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8245188306085893</v>
+        <v>0.1750568991806745</v>
       </c>
       <c r="Q7">
-        <v>1.020107206625838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2722030347185083</v>
+      </c>
+      <c r="R7">
+        <v>0.8292686172953481</v>
+      </c>
+      <c r="S7">
+        <v>0.9834537456686974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.835683667391351</v>
+        <v>1.792993894442333</v>
       </c>
       <c r="C8">
-        <v>0.380785520592724</v>
+        <v>0.3880233793112495</v>
       </c>
       <c r="D8">
-        <v>0.05773430526577528</v>
+        <v>0.06027714723559541</v>
       </c>
       <c r="E8">
-        <v>0.07634566431694756</v>
+        <v>0.07369354880816203</v>
       </c>
       <c r="F8">
-        <v>0.3996514497310173</v>
+        <v>0.3832089293923389</v>
       </c>
       <c r="G8">
-        <v>0.2956101612310533</v>
+        <v>0.2732079093730917</v>
       </c>
       <c r="H8">
-        <v>2.324307806056414E-05</v>
+        <v>2.569397071050528E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2468693555243036</v>
+        <v>0.2692241138880078</v>
       </c>
       <c r="K8">
-        <v>0.2345982346011475</v>
+        <v>0.2197091171030827</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.134481388629645</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04474915915289657</v>
       </c>
       <c r="N8">
-        <v>0.1939840559463022</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.3305801213360198</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8180991245217584</v>
+        <v>0.1985647082458399</v>
       </c>
       <c r="Q8">
-        <v>1.093313809063957</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3263829030794625</v>
+      </c>
+      <c r="R8">
+        <v>0.8320716862952722</v>
+      </c>
+      <c r="S8">
+        <v>1.041589343664754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.451795352687327</v>
+        <v>2.379596367378952</v>
       </c>
       <c r="C9">
-        <v>0.4565807387647283</v>
+        <v>0.4798798845039016</v>
       </c>
       <c r="D9">
-        <v>0.07516639095278066</v>
+        <v>0.0794097415651791</v>
       </c>
       <c r="E9">
-        <v>0.07984958740941472</v>
+        <v>0.07651767902823359</v>
       </c>
       <c r="F9">
-        <v>0.4797046018331699</v>
+        <v>0.4547785620490075</v>
       </c>
       <c r="G9">
-        <v>0.3532329851378222</v>
+        <v>0.3268023856299322</v>
       </c>
       <c r="H9">
-        <v>0.001079925707551332</v>
+        <v>0.0009599989975322964</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2638364911710056</v>
+        <v>0.2824428342978607</v>
       </c>
       <c r="K9">
-        <v>0.2350740797433524</v>
+        <v>0.2161342442667582</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1234717268097469</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05330436351651002</v>
       </c>
       <c r="N9">
-        <v>0.2397588123712566</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.4396659224995787</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8107715570752916</v>
+        <v>0.2448409163426959</v>
       </c>
       <c r="Q9">
-        <v>1.251672365023182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4328089885019537</v>
+      </c>
+      <c r="R9">
+        <v>0.841697280960247</v>
+      </c>
+      <c r="S9">
+        <v>1.175081135443207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.895128146289153</v>
+        <v>2.795170957986102</v>
       </c>
       <c r="C10">
-        <v>0.5168198387596874</v>
+        <v>0.549402757632663</v>
       </c>
       <c r="D10">
-        <v>0.08868308606094644</v>
+        <v>0.09482317938910256</v>
       </c>
       <c r="E10">
-        <v>0.08120713547690173</v>
+        <v>0.07757460849848696</v>
       </c>
       <c r="F10">
-        <v>0.5370616209381609</v>
+        <v>0.5017858828059474</v>
       </c>
       <c r="G10">
-        <v>0.3936246344896546</v>
+        <v>0.3810691099578349</v>
       </c>
       <c r="H10">
-        <v>0.002799583083612056</v>
+        <v>0.002455896188188866</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.275699136791772</v>
+        <v>0.2695762412514924</v>
       </c>
       <c r="K10">
-        <v>0.2343229955431383</v>
+        <v>0.2109865668599404</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1147139459621389</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.06074610379809897</v>
       </c>
       <c r="N10">
-        <v>0.2616975792192449</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5115891762013405</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8149289029207694</v>
+        <v>0.2667915143213833</v>
       </c>
       <c r="Q10">
-        <v>1.362593353260877</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5019052692178363</v>
+      </c>
+      <c r="R10">
+        <v>0.8614215583200746</v>
+      </c>
+      <c r="S10">
+        <v>1.25496023559154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.017663532182723</v>
+        <v>2.905386723195079</v>
       </c>
       <c r="C11">
-        <v>0.5894363637357856</v>
+        <v>0.6186467634480834</v>
       </c>
       <c r="D11">
-        <v>0.1015670973529339</v>
+        <v>0.1094880727219021</v>
       </c>
       <c r="E11">
-        <v>0.07743135486946806</v>
+        <v>0.07486072327352788</v>
       </c>
       <c r="F11">
-        <v>0.5205230728880679</v>
+        <v>0.4784938188392829</v>
       </c>
       <c r="G11">
-        <v>0.3696389044480526</v>
+        <v>0.3953384094461114</v>
       </c>
       <c r="H11">
-        <v>0.02131621300613062</v>
+        <v>0.02091164466656537</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2598675960874601</v>
+        <v>0.2161589075489729</v>
       </c>
       <c r="K11">
-        <v>0.2061866179508982</v>
+        <v>0.1835484680489756</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1023932278005901</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05376352727579103</v>
       </c>
       <c r="N11">
-        <v>0.1817281074662205</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4737912894422465</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8754119836111869</v>
+        <v>0.1846502905101346</v>
       </c>
       <c r="Q11">
-        <v>1.278778653461984</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4629395433592833</v>
+      </c>
+      <c r="R11">
+        <v>0.9352349348131384</v>
+      </c>
+      <c r="S11">
+        <v>1.152773879341112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.025873926795782</v>
+        <v>2.912957192885699</v>
       </c>
       <c r="C12">
-        <v>0.6416329852415856</v>
+        <v>0.6668527395946171</v>
       </c>
       <c r="D12">
-        <v>0.1100004132813837</v>
+        <v>0.1186540670933454</v>
       </c>
       <c r="E12">
-        <v>0.08170851325646389</v>
+        <v>0.07975495044242908</v>
       </c>
       <c r="F12">
-        <v>0.494115062828989</v>
+        <v>0.4512841029680317</v>
       </c>
       <c r="G12">
-        <v>0.3411189217762569</v>
+        <v>0.3847165370319487</v>
       </c>
       <c r="H12">
-        <v>0.0597827046447037</v>
+        <v>0.05937893934726191</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.243968185879524</v>
+        <v>0.1894011987948616</v>
       </c>
       <c r="K12">
-        <v>0.1838103935808384</v>
+        <v>0.1637297724943778</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.094920114854812</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04679336669796541</v>
       </c>
       <c r="N12">
-        <v>0.1255325229879602</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4282612354440261</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9320074104672784</v>
+        <v>0.1269305068669482</v>
       </c>
       <c r="Q12">
-        <v>1.185092366510474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4176387743268393</v>
+      </c>
+      <c r="R12">
+        <v>0.9979949725403685</v>
+      </c>
+      <c r="S12">
+        <v>1.058841903126279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.946484131184036</v>
+        <v>2.844535899161372</v>
       </c>
       <c r="C13">
-        <v>0.6805290441789396</v>
+        <v>0.7027643928072109</v>
       </c>
       <c r="D13">
-        <v>0.1154072191149282</v>
+        <v>0.1236135051807565</v>
       </c>
       <c r="E13">
-        <v>0.09215568280215969</v>
+        <v>0.09072290785876547</v>
       </c>
       <c r="F13">
-        <v>0.4584361104428609</v>
+        <v>0.4207117324482397</v>
       </c>
       <c r="G13">
-        <v>0.3073553691655349</v>
+        <v>0.3473373161257172</v>
       </c>
       <c r="H13">
-        <v>0.115168015039032</v>
+        <v>0.1148155880498507</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2270122438668807</v>
+        <v>0.1823829518323663</v>
       </c>
       <c r="K13">
-        <v>0.1644324388628675</v>
+        <v>0.1485801885506461</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09018436152403808</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03980006005181913</v>
       </c>
       <c r="N13">
-        <v>0.0844336490426798</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3744776308915476</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9875100079718209</v>
+        <v>0.08473765553056367</v>
       </c>
       <c r="Q13">
-        <v>1.077990847812771</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3653808937584841</v>
+      </c>
+      <c r="R13">
+        <v>1.051889727623887</v>
+      </c>
+      <c r="S13">
+        <v>0.9690100891082523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.851520479351905</v>
+        <v>2.762238887526394</v>
       </c>
       <c r="C14">
-        <v>0.7018152917393934</v>
+        <v>0.7224792856398778</v>
       </c>
       <c r="D14">
-        <v>0.1178230740711825</v>
+        <v>0.1251580648409174</v>
       </c>
       <c r="E14">
-        <v>0.1031209013284382</v>
+        <v>0.1020724535496207</v>
       </c>
       <c r="F14">
-        <v>0.4294794252898697</v>
+        <v>0.3976873956699905</v>
       </c>
       <c r="G14">
-        <v>0.2816205313735551</v>
+        <v>0.3106965861484099</v>
       </c>
       <c r="H14">
-        <v>0.1642104701693512</v>
+        <v>0.1639108984122117</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2147757662248324</v>
+        <v>0.1848641122755552</v>
       </c>
       <c r="K14">
-        <v>0.1524905097004066</v>
+        <v>0.1400479144899549</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08791876793411646</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03506318330033942</v>
       </c>
       <c r="N14">
-        <v>0.06478959179889365</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3336863744990666</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.026030665555069</v>
+        <v>0.06452854042800915</v>
       </c>
       <c r="Q14">
-        <v>0.9977581311683252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3261261701764013</v>
+      </c>
+      <c r="R14">
+        <v>1.085347124551475</v>
+      </c>
+      <c r="S14">
+        <v>0.9075380730164397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.810037501690942</v>
+        <v>2.726016706674216</v>
       </c>
       <c r="C15">
-        <v>0.7035782972689049</v>
+        <v>0.7241293543463883</v>
       </c>
       <c r="D15">
-        <v>0.1176971815102661</v>
+        <v>0.124583236097763</v>
       </c>
       <c r="E15">
-        <v>0.106045323317737</v>
+        <v>0.1051356511786494</v>
       </c>
       <c r="F15">
-        <v>0.4205314872653645</v>
+        <v>0.3912037481751369</v>
       </c>
       <c r="G15">
-        <v>0.2742370484240126</v>
+        <v>0.2972747187374267</v>
       </c>
       <c r="H15">
-        <v>0.1765834463921436</v>
+        <v>0.1763077108819147</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2115883125951612</v>
+        <v>0.188719224537877</v>
       </c>
       <c r="K15">
-        <v>0.1500689442570096</v>
+        <v>0.1386793286566892</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08775526971290226</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03389092734195032</v>
       </c>
       <c r="N15">
-        <v>0.06118399339064062</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.3218900222285441</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.034113647994616</v>
+        <v>0.06084331671040388</v>
       </c>
       <c r="Q15">
-        <v>0.9753984820425075</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3149127772779465</v>
+      </c>
+      <c r="R15">
+        <v>1.090563945460048</v>
+      </c>
+      <c r="S15">
+        <v>0.8926465496333549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.636850164593909</v>
+        <v>2.571502027772794</v>
       </c>
       <c r="C16">
-        <v>0.668117607069405</v>
+        <v>0.6904328917025282</v>
       </c>
       <c r="D16">
-        <v>0.1105538991801751</v>
+        <v>0.1155050771971986</v>
       </c>
       <c r="E16">
-        <v>0.102808692379659</v>
+        <v>0.102283055807213</v>
       </c>
       <c r="F16">
-        <v>0.4030613470833373</v>
+        <v>0.3824703876474871</v>
       </c>
       <c r="G16">
-        <v>0.2637590786225203</v>
+        <v>0.2590921010560834</v>
       </c>
       <c r="H16">
-        <v>0.1631375726772148</v>
+        <v>0.1629668971063154</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2098290971560886</v>
+        <v>0.2183926589539098</v>
       </c>
       <c r="K16">
-        <v>0.1540927533564407</v>
+        <v>0.1448596616621067</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09146170869195736</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0333582915702344</v>
       </c>
       <c r="N16">
-        <v>0.06119722434356589</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3034204042175901</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.017083361104426</v>
+        <v>0.06129581758352387</v>
       </c>
       <c r="Q16">
-        <v>0.9493118860952166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2983055068411105</v>
+      </c>
+      <c r="R16">
+        <v>1.060275124353069</v>
+      </c>
+      <c r="S16">
+        <v>0.8917244925392538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.554542311388445</v>
+        <v>2.495193615458049</v>
       </c>
       <c r="C17">
-        <v>0.6296659535358629</v>
+        <v>0.653098965141055</v>
       </c>
       <c r="D17">
-        <v>0.1038088049371879</v>
+        <v>0.1079986823501571</v>
       </c>
       <c r="E17">
-        <v>0.09393611584036421</v>
+        <v>0.09334765094847874</v>
       </c>
       <c r="F17">
-        <v>0.4051271673871781</v>
+        <v>0.3873063358038351</v>
       </c>
       <c r="G17">
-        <v>0.2694025611580031</v>
+        <v>0.2525240248374345</v>
       </c>
       <c r="H17">
-        <v>0.1249878047685939</v>
+        <v>0.1248624361979438</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2150212455355813</v>
+        <v>0.2377096924167859</v>
       </c>
       <c r="K17">
-        <v>0.1634882778875664</v>
+        <v>0.154113908183005</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09581064212221158</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03524735217837005</v>
       </c>
       <c r="N17">
-        <v>0.07003902570797749</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3105113747531973</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9838762450644509</v>
+        <v>0.07075142091819231</v>
       </c>
       <c r="Q17">
-        <v>0.9720303253191815</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.305911153672028</v>
+      </c>
+      <c r="R17">
+        <v>1.021304928996003</v>
+      </c>
+      <c r="S17">
+        <v>0.9218353765029121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.540394554638226</v>
+        <v>2.479308795508757</v>
       </c>
       <c r="C18">
-        <v>0.585713751897913</v>
+        <v>0.6108689661601829</v>
       </c>
       <c r="D18">
-        <v>0.09679038264097528</v>
+        <v>0.1008239608865651</v>
       </c>
       <c r="E18">
-        <v>0.08287600122523031</v>
+        <v>0.08183388726086172</v>
       </c>
       <c r="F18">
-        <v>0.4241376079048678</v>
+        <v>0.4057309453268161</v>
       </c>
       <c r="G18">
-        <v>0.2897618216629141</v>
+        <v>0.2658922010877731</v>
       </c>
       <c r="H18">
-        <v>0.07210153375724104</v>
+        <v>0.07198660176132421</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.226808871499415</v>
+        <v>0.2549215733493639</v>
       </c>
       <c r="K18">
-        <v>0.1792131864818352</v>
+        <v>0.1680364891538382</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1016229756982323</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03963161016117134</v>
       </c>
       <c r="N18">
-        <v>0.09541670596161467</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3414336633809043</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9355838081187784</v>
+        <v>0.09707597078595853</v>
       </c>
       <c r="Q18">
-        <v>1.039809229290256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3365339459337662</v>
+      </c>
+      <c r="R18">
+        <v>0.9711382608966943</v>
+      </c>
+      <c r="S18">
+        <v>0.9868158051934444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.581765179784156</v>
+        <v>2.513788922060996</v>
       </c>
       <c r="C19">
-        <v>0.5424208921741638</v>
+        <v>0.5698606531792336</v>
       </c>
       <c r="D19">
-        <v>0.09025906828007635</v>
+        <v>0.09448101759202387</v>
       </c>
       <c r="E19">
-        <v>0.07621760151703239</v>
+        <v>0.07435339046154787</v>
       </c>
       <c r="F19">
-        <v>0.4556861896701605</v>
+        <v>0.434519600561913</v>
       </c>
       <c r="G19">
-        <v>0.3211624617690205</v>
+        <v>0.2926019664401025</v>
       </c>
       <c r="H19">
-        <v>0.02714266896702355</v>
+        <v>0.02700650533392945</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2432765096079379</v>
+        <v>0.2717235900169825</v>
       </c>
       <c r="K19">
-        <v>0.2000321084514631</v>
+        <v>0.1857722488792319</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.108533189573361</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04613261711777916</v>
       </c>
       <c r="N19">
-        <v>0.1442539139577974</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.3911576521747122</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8822179855408336</v>
+        <v>0.1472108957195459</v>
       </c>
       <c r="Q19">
-        <v>1.140845496058461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.3853790043612975</v>
+      </c>
+      <c r="R19">
+        <v>0.9179571698813334</v>
+      </c>
+      <c r="S19">
+        <v>1.078294059934848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.778371791853147</v>
+        <v>2.689466501005995</v>
       </c>
       <c r="C20">
-        <v>0.5012112200189165</v>
+        <v>0.5330062064056449</v>
       </c>
       <c r="D20">
-        <v>0.08516413989116955</v>
+        <v>0.09041191723638065</v>
       </c>
       <c r="E20">
-        <v>0.08079307460352148</v>
+        <v>0.07723142625804913</v>
       </c>
       <c r="F20">
-        <v>0.5215319726643983</v>
+        <v>0.4914930768266998</v>
       </c>
       <c r="G20">
-        <v>0.3825837527519127</v>
+        <v>0.3562605679391879</v>
       </c>
       <c r="H20">
-        <v>0.002264401848703024</v>
+        <v>0.001997526496057667</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2723414368891355</v>
+        <v>0.285840020294458</v>
       </c>
       <c r="K20">
-        <v>0.2342104585325018</v>
+        <v>0.2129876626140224</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1172086080235744</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.05893292122332383</v>
       </c>
       <c r="N20">
-        <v>0.25543987506245</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.4923659242617902</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8137999819586454</v>
+        <v>0.2606331656815826</v>
       </c>
       <c r="Q20">
-        <v>1.332039870227845</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4839844295316738</v>
+      </c>
+      <c r="R20">
+        <v>0.8544237102690175</v>
+      </c>
+      <c r="S20">
+        <v>1.240454553485023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.132492655961983</v>
+        <v>3.000632969007711</v>
       </c>
       <c r="C21">
-        <v>0.5397739097755903</v>
+        <v>0.5703382448438674</v>
       </c>
       <c r="D21">
-        <v>0.09438788380376195</v>
+        <v>0.1032374053887821</v>
       </c>
       <c r="E21">
-        <v>0.08364119625314093</v>
+        <v>0.07971717671844569</v>
       </c>
       <c r="F21">
-        <v>0.57458436553258</v>
+        <v>0.5224971785586092</v>
       </c>
       <c r="G21">
-        <v>0.4224527681295882</v>
+        <v>0.4626634466558528</v>
       </c>
       <c r="H21">
-        <v>0.003822954694453762</v>
+        <v>0.003268008104732378</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2860001304813977</v>
+        <v>0.2180057312111217</v>
       </c>
       <c r="K21">
-        <v>0.2396820107736168</v>
+        <v>0.2092057111315206</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1107381804600731</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0652865815651964</v>
       </c>
       <c r="N21">
-        <v>0.2904420388288429</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5603665495328158</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8088436405053727</v>
+        <v>0.2954142640029289</v>
       </c>
       <c r="Q21">
-        <v>1.4454995025161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5465640954208695</v>
+      </c>
+      <c r="R21">
+        <v>0.8708377259468705</v>
+      </c>
+      <c r="S21">
+        <v>1.28565318191292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.359508097810306</v>
+        <v>3.197945309214674</v>
       </c>
       <c r="C22">
-        <v>0.5674262716798921</v>
+        <v>0.5963469638219294</v>
       </c>
       <c r="D22">
-        <v>0.1007935089610967</v>
+        <v>0.1122291123714945</v>
       </c>
       <c r="E22">
-        <v>0.08489910737778672</v>
+        <v>0.08087450861447198</v>
       </c>
       <c r="F22">
-        <v>0.6075275281876458</v>
+        <v>0.5399413159531505</v>
       </c>
       <c r="G22">
-        <v>0.4466719157060197</v>
+        <v>0.5394643120949922</v>
       </c>
       <c r="H22">
-        <v>0.005062561731620618</v>
+        <v>0.0042799029626715</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2940641769317267</v>
+        <v>0.1783661147328459</v>
       </c>
       <c r="K22">
-        <v>0.2420250257772416</v>
+        <v>0.2052824729443152</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1061768252436348</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.06910324246199195</v>
       </c>
       <c r="N22">
-        <v>0.3073775263678868</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.6006547794986332</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8093859773898515</v>
+        <v>0.3120510597154862</v>
       </c>
       <c r="Q22">
-        <v>1.513941876174158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5830582206174739</v>
+      </c>
+      <c r="R22">
+        <v>0.8866416617456281</v>
+      </c>
+      <c r="S22">
+        <v>1.30632850969377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.238328346945593</v>
+        <v>3.095385924964717</v>
       </c>
       <c r="C23">
-        <v>0.5526705285137723</v>
+        <v>0.5836988309278297</v>
       </c>
       <c r="D23">
-        <v>0.09737442941166563</v>
+        <v>0.1071261270362385</v>
       </c>
       <c r="E23">
-        <v>0.08422777123993797</v>
+        <v>0.08023040764963341</v>
       </c>
       <c r="F23">
-        <v>0.5898663017919361</v>
+        <v>0.5324047486044563</v>
       </c>
       <c r="G23">
-        <v>0.4336769785781911</v>
+        <v>0.4895647828334546</v>
       </c>
       <c r="H23">
-        <v>0.004381640613980275</v>
+        <v>0.003731200964194825</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2897206430454702</v>
+        <v>0.2055257082402591</v>
       </c>
       <c r="K23">
-        <v>0.2407275123319543</v>
+        <v>0.2080113316348644</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1088016074463685</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.06732088288847748</v>
       </c>
       <c r="N23">
-        <v>0.298335282179778</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5791471871713796</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8090285173896632</v>
+        <v>0.3032508201954016</v>
       </c>
       <c r="Q23">
-        <v>1.477184913977766</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5639955704212767</v>
+      </c>
+      <c r="R23">
+        <v>0.8767416934565233</v>
+      </c>
+      <c r="S23">
+        <v>1.30082941131684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.779690548640417</v>
+        <v>2.690322879201574</v>
       </c>
       <c r="C24">
-        <v>0.4967134441438361</v>
+        <v>0.528632318117559</v>
       </c>
       <c r="D24">
-        <v>0.08442883870844042</v>
+        <v>0.08966468945868655</v>
       </c>
       <c r="E24">
-        <v>0.08168176841064767</v>
+        <v>0.07799147330813749</v>
       </c>
       <c r="F24">
-        <v>0.5246448645935828</v>
+        <v>0.4944185298993915</v>
       </c>
       <c r="G24">
-        <v>0.3859126205001928</v>
+        <v>0.3586882150627986</v>
       </c>
       <c r="H24">
-        <v>0.00221167939617406</v>
+        <v>0.001940496670484126</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2741143733881586</v>
+        <v>0.2881512542035551</v>
       </c>
       <c r="K24">
-        <v>0.2368165439604226</v>
+        <v>0.2152492946889204</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1181237720901596</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.05971266278084286</v>
       </c>
       <c r="N24">
-        <v>0.2641560489383892</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.4977875088626433</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8091349091409015</v>
+        <v>0.269533078179478</v>
       </c>
       <c r="Q24">
-        <v>1.342805470544278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4893273646682132</v>
+      </c>
+      <c r="R24">
+        <v>0.8494684523979004</v>
+      </c>
+      <c r="S24">
+        <v>1.25047927394985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.285223465933484</v>
+        <v>2.222659899436394</v>
       </c>
       <c r="C25">
-        <v>0.4361440500458684</v>
+        <v>0.4556710974588327</v>
       </c>
       <c r="D25">
-        <v>0.070457749192677</v>
+        <v>0.07408262008824806</v>
       </c>
       <c r="E25">
-        <v>0.07891208987255371</v>
+        <v>0.07575720373478534</v>
       </c>
       <c r="F25">
-        <v>0.4574633704468596</v>
+        <v>0.435912967414211</v>
       </c>
       <c r="G25">
-        <v>0.3371404691451119</v>
+        <v>0.3078757052798125</v>
       </c>
       <c r="H25">
-        <v>0.0006495152899538281</v>
+        <v>0.0005860049421690938</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2589268171830241</v>
+        <v>0.2841451446765078</v>
       </c>
       <c r="K25">
-        <v>0.2345612002643342</v>
+        <v>0.2171714146404256</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1264520322593583</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05061652159649732</v>
       </c>
       <c r="N25">
-        <v>0.2273756341472151</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.4101562926623572</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8121634522298748</v>
+        <v>0.2323563161419031</v>
       </c>
       <c r="Q25">
-        <v>1.207101372162811</v>
+        <v>0.4042596273136994</v>
+      </c>
+      <c r="R25">
+        <v>0.837810957536206</v>
+      </c>
+      <c r="S25">
+        <v>1.140647883468631</v>
       </c>
     </row>
   </sheetData>
